--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93174A3C-10CE-48AF-8B83-80295CB6629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B3E82-C216-4C53-8838-8626AB0904A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2085" windowWidth="12825" windowHeight="9945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="276">
   <si>
     <t>English</t>
   </si>
@@ -151,24 +151,6 @@
     <t>Maximum Impostor Roles</t>
   </si>
   <si>
-    <t>クルーロール　最少</t>
-  </si>
-  <si>
-    <t>クルーロール　最大</t>
-  </si>
-  <si>
-    <t>その他陣営ロール　最少</t>
-  </si>
-  <si>
-    <t>その他陣営ロール　最大</t>
-  </si>
-  <si>
-    <t>インポスターロール　最少</t>
-  </si>
-  <si>
-    <t>インポスターロール　最大</t>
-  </si>
-  <si>
     <t>ExtremeRoles Settings</t>
   </si>
   <si>
@@ -197,9 +179,6 @@
     <t>MaxImpostorRoles</t>
   </si>
   <si>
-    <t>合計緊急会議回数（メイヤー対象外）</t>
-  </si>
-  <si>
     <t>Block Skipping in Meetings</t>
   </si>
   <si>
@@ -246,9 +225,6 @@
     <t>Play On A Random Map</t>
   </si>
   <si>
-    <t>毎回マップがランダムに</t>
-  </si>
-  <si>
     <t>RandomMap</t>
   </si>
   <si>
@@ -316,27 +292,18 @@
     <t>Crewmate Roles</t>
   </si>
   <si>
-    <t>クルーロール</t>
-  </si>
-  <si>
     <t>neutralRoles</t>
   </si>
   <si>
     <t>Neutral Roles</t>
   </si>
   <si>
-    <t>その他陣営ロール</t>
-  </si>
-  <si>
     <t>impostorRoles</t>
   </si>
   <si>
     <t>Impostor Roles</t>
   </si>
   <si>
-    <t>インポスターロール</t>
-  </si>
-  <si>
     <t>pressTabForMore</t>
   </si>
   <si>
@@ -344,6 +311,1169 @@
   </si>
   <si>
     <t>Tabキーで次のページへ…</t>
+  </si>
+  <si>
+    <t>第三陣営のロール</t>
+    <rPh sb="0" eb="2">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クルーのロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスターのロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クルーのロール数　最少</t>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クルーのロール数　最大</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営のロール数　最少</t>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営のロール数　最大</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスターのロール数　最少</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスターのロール数　最大</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計緊急会議回数</t>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Short</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミドル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialCrewRoleNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialCrewHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialCrewVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialCrewApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialCrewSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペシャルクルー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーン数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別視界を持つか</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視界</t>
+    <rPh sb="0" eb="2">
+      <t>シカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視界効果を受けるか</t>
+    <rPh sb="0" eb="2">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialImpostorSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialImpostorRoleNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialImpostorHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialImpostorVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialImpostorApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialImpostorHasOtherKillCool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialImpostorKillCoolDown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialImpostorHasOtherKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialImpostorKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペシャルインポスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別のキルクールタイムを持つか</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別のキルレンジを持つか</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルレンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceRoleNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceHasOtherKillCool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceKillCoolDown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceHasOtherKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceAbilityCoolTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アリス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊工作のクールタイム</t>
+    <rPh sb="0" eb="4">
+      <t>ハカイコウサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalRoleNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalHasOtherKillCool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalKillCoolDown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalHasOtherKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalSidekickNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキック作成数</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalRangeSidekickTarget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキック作成能力の範囲</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalUpgradeSidekickNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalSidekickJackalCanMakeSidekick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalSidekickLimitNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャッカル死亡時、昇格するサイドキック数</t>
+    <rPh sb="5" eb="8">
+      <t>シボウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウカク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalAbilityCoolTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昇格したジャッカルがサイドキックを作成できるか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウカク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalCanSetImpostorToSideKick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昇格したジャッカルがサイドキックを作成できる再帰上限数</t>
+    <rPh sb="0" eb="2">
+      <t>ショウカク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキック作成能力のクールタイム</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalCanSeeImpostorToSideKickImpostor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスターをサイドキックにできるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックされたインポスターの表示をインポスターにするか</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ackalSidekickUseSabotage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックがサボタージを使えるか</t>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalSidekickUseVent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックがベントを使えるか</t>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalSidekickHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャッカルが別視界を持つか</t>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャッカルの視界</t>
+    <rPh sb="6" eb="8">
+      <t>シカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャッカルが視界効果を受けるか</t>
+    <rPh sb="6" eb="8">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックが別視界を持つか</t>
+    <rPh sb="7" eb="8">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックの視界</t>
+    <rPh sb="7" eb="9">
+      <t>シカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックが視界効果を受けるか</t>
+    <rPh sb="7" eb="9">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalSidekickVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalSidekickApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャッカル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AvalonsRolesSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシンとマーリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーンセット数</t>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AvalonsRolesRoleNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AvalonsRolesIsMultiAssign</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別役職の能力を持つか</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシンが別視界を持つか</t>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシンの視界</t>
+    <rPh sb="5" eb="7">
+      <t>シカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシンが視界効果を受けるか</t>
+    <rPh sb="5" eb="7">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinHasOtherKillCool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinKillCoolDown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシンのキルクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシンが別のキルクールタイムを持つか</t>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシンが別のキルレンジを持つか</t>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシンのキルレンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinHasOtherKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinIsDeadForceMeeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシン死亡時、強制的に会議を行うか</t>
+    <rPh sb="4" eb="7">
+      <t>シボウジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キョウセイテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinCanSeeRoleBeforeFirstMeeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシン死亡後の最初の会議前にロールを見ることができるか</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MarlinHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MarlinVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MarlinApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーリンが別視界を持つか</t>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーリンの視界</t>
+    <rPh sb="5" eb="7">
+      <t>シカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーリンが視界効果を受けるか</t>
+    <rPh sb="5" eb="7">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MarlinHasTask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MarlinCanSeeVote</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MarlinCanSeeNeutral</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーリンがタスクを持つか</t>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーリンが投票を見ることができるか</t>
+    <rPh sb="5" eb="7">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーリンが第三陣営を見ることができるか</t>
+    <rPh sb="5" eb="7">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverAssignsNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverRoleNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラバーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1組あたりのアサイン数</t>
+    <rPh sb="1" eb="2">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverIsAssignImposter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverImposterSelectedRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverIsMultiAssign</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスターがアサインされるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスターのアサインレート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverIsNeutral</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営かどうか</t>
+    <rPh sb="0" eb="4">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverBecomNeutral</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営に変わるかどうか</t>
+    <rPh sb="0" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverDethWhenUnderAlive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverHasOtherKillCool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverKillCoolDown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverHasOtherKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自殺が行われる1組辺り人数</t>
+    <rPh sb="0" eb="2">
+      <t>ジサツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialCrewIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialCrewShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクストリームなクルー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通のクルーとは少し違う設定を持つ</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialImpostorIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialImpostorShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通のインポスターとは少し違う設定を持つ</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクストリームなインポスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てをメチャクチャにする、わがままの権化</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスターに殺されるか、全てを破壊せよ</t>
+    <rPh sb="7" eb="8">
+      <t>コロ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SidekickShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャッカルのアシストを行え</t>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックともに、皆殺しだ</t>
+    <rPh sb="10" eb="12">
+      <t>ミナゴロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックを作り、この船を乗っ取れ</t>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MarlinIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MarlinShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クルーを勝利に導け。ただし、暗殺者にばれるな</t>
+    <rPh sb="14" eb="17">
+      <t>アンサツシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーリンを探し出し、暗殺せよ</t>
+    <rPh sb="5" eb="6">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アンサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てを知りし者を探し出し、始末するのだ</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋人と運命を共にする船員</t>
+    <rPh sb="0" eb="2">
+      <t>コイビト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウンメイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運命の人と生き残れ</t>
+    <rPh sb="0" eb="2">
+      <t>ウンメイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎回マップがランダムに変わるか</t>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てを知り、見通し、暗殺されず、クルーを勝利に導け</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ミトオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アンサツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミチビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -668,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -733,13 +1863,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -799,7 +1929,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -810,244 +1940,1037 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="M12" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M17" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M18" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M19" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M21" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M22" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M24" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M25" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M26" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M27" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M30" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="M32" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="M33" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="M36" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="M37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="M39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="M41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="M43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="M44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="M45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>113</v>
+      </c>
+      <c r="M46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="M47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>245</v>
+      </c>
+      <c r="M48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M49" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="M51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="M52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="M53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="M54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="M56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="M57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="M58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="M59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>249</v>
+      </c>
+      <c r="M60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>250</v>
+      </c>
+      <c r="M61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="M63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="M64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>137</v>
+      </c>
+      <c r="M65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="M66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="M67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>140</v>
+      </c>
+      <c r="M68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>141</v>
+      </c>
+      <c r="M69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="M70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="M71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="M72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>253</v>
+      </c>
+      <c r="M73" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>254</v>
+      </c>
+      <c r="M74" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>147</v>
+      </c>
+      <c r="M76" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="M77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="M78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>150</v>
+      </c>
+      <c r="M79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>151</v>
+      </c>
+      <c r="M80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>152</v>
+      </c>
+      <c r="M81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>153</v>
+      </c>
+      <c r="M82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>154</v>
+      </c>
+      <c r="M83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>155</v>
+      </c>
+      <c r="M84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>156</v>
+      </c>
+      <c r="M85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="M86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>160</v>
+      </c>
+      <c r="M87" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>161</v>
+      </c>
+      <c r="M88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>162</v>
+      </c>
+      <c r="M89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>164</v>
+      </c>
+      <c r="M90" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="M91" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>169</v>
+      </c>
+      <c r="M92" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>172</v>
+      </c>
+      <c r="M93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>174</v>
+      </c>
+      <c r="M94" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>176</v>
+      </c>
+      <c r="M95" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>183</v>
+      </c>
+      <c r="M96" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>184</v>
+      </c>
+      <c r="M97" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>257</v>
+      </c>
+      <c r="M98" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>258</v>
+      </c>
+      <c r="M99" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>259</v>
+      </c>
+      <c r="M100" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>186</v>
+      </c>
+      <c r="M102" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>189</v>
+      </c>
+      <c r="M103" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>190</v>
+      </c>
+      <c r="M104" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>191</v>
+      </c>
+      <c r="M105" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>193</v>
+      </c>
+      <c r="M106" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>197</v>
+      </c>
+      <c r="M107" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>198</v>
+      </c>
+      <c r="M108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>199</v>
+      </c>
+      <c r="M109" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>204</v>
+      </c>
+      <c r="M110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>205</v>
+      </c>
+      <c r="M111" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>206</v>
+      </c>
+      <c r="M112" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>208</v>
+      </c>
+      <c r="M113" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>210</v>
+      </c>
+      <c r="M114" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>211</v>
+      </c>
+      <c r="M115" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>212</v>
+      </c>
+      <c r="M116" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>216</v>
+      </c>
+      <c r="M117" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>217</v>
+      </c>
+      <c r="M118" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>218</v>
+      </c>
+      <c r="M119" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>263</v>
+      </c>
+      <c r="M120" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>264</v>
+      </c>
+      <c r="M121" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>266</v>
+      </c>
+      <c r="M122" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>267</v>
+      </c>
+      <c r="M123" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>222</v>
+      </c>
+      <c r="M125" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>223</v>
+      </c>
+      <c r="M126" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>224</v>
+      </c>
+      <c r="M127" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>227</v>
+      </c>
+      <c r="M128" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>228</v>
+      </c>
+      <c r="M129" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>229</v>
+      </c>
+      <c r="M130" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>232</v>
+      </c>
+      <c r="M131" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>233</v>
+      </c>
+      <c r="M132" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>234</v>
+      </c>
+      <c r="M133" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>235</v>
+      </c>
+      <c r="M134" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>237</v>
+      </c>
+      <c r="M135" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>239</v>
+      </c>
+      <c r="M136" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>240</v>
+      </c>
+      <c r="M137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>241</v>
+      </c>
+      <c r="M138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>242</v>
+      </c>
+      <c r="M139" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>243</v>
+      </c>
+      <c r="M140" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>270</v>
+      </c>
+      <c r="M141" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>271</v>
+      </c>
+      <c r="M142" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B3E82-C216-4C53-8838-8626AB0904A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6182AE-3A1C-4F11-95BC-12F328577B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="288">
   <si>
     <t>English</t>
   </si>
@@ -1415,22 +1415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>恋人と運命を共にする船員</t>
-    <rPh sb="0" eb="2">
-      <t>コイビト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ウンメイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>運命の人と生き残れ</t>
     <rPh sb="0" eb="2">
       <t>ウンメイ</t>
@@ -1474,6 +1458,65 @@
       <t>ミチビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋に運命と身をゆだねる船員</t>
+    <rPh sb="0" eb="1">
+      <t>コイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウンメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialCrew</t>
+  </si>
+  <si>
+    <t>SpecialImpostor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Jackal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sidekick </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャッカル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assassin</t>
+  </si>
+  <si>
+    <t>Marlin</t>
+  </si>
+  <si>
+    <t>マーリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lover</t>
   </si>
 </sst>
 </file>
@@ -1798,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q142"/>
+  <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="M133" sqref="M133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2067,7 +2110,7 @@
         <v>62</v>
       </c>
       <c r="M22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -2215,7 +2258,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s">
         <v>116</v>
@@ -2223,754 +2266,818 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="M48" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>245</v>
+      </c>
+      <c r="M49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>246</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M50" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>121</v>
-      </c>
-      <c r="M51" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>277</v>
       </c>
       <c r="M52" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M53" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M54" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M56" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M57" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="M60" t="s">
-        <v>251</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="M61" t="s">
-        <v>252</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>249</v>
+      </c>
+      <c r="M62" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>250</v>
       </c>
       <c r="M63" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>136</v>
-      </c>
-      <c r="M64" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="M65" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M66" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M67" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M68" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M69" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M70" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M72" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="M73" t="s">
-        <v>255</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="M74" t="s">
-        <v>256</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
+      <c r="M75" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="M76" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="M77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>149</v>
-      </c>
-      <c r="M78" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="M79" t="s">
-        <v>178</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="M80" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M81" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M82" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M83" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M84" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M85" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M86" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="M87" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M88" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M89" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M90" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M91" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M92" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M93" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M94" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="M95" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="M96" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="M97" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="M98" t="s">
-        <v>262</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="M99" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="M100" t="s">
-        <v>260</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>183</v>
+      </c>
+      <c r="M101" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M102" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="M103" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="M104" t="s">
-        <v>192</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="M105" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>193</v>
-      </c>
-      <c r="M106" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="M107" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="M108" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="M109" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="M110" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M111" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M112" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="M113" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M114" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="M115" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="M116" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="M117" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M118" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M119" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="M120" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="M121" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="M122" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="M123" t="s">
-        <v>268</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>216</v>
+      </c>
+      <c r="M124" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M125" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M126" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="M127" t="s">
-        <v>188</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="M128" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="M129" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="M130" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>232</v>
-      </c>
-      <c r="M131" t="s">
-        <v>118</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="M132" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="M133" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M134" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="M135" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="M136" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="M137" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M138" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="M139" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="M140" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="M141" t="s">
-        <v>272</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
+        <v>235</v>
+      </c>
+      <c r="M142" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>237</v>
+      </c>
+      <c r="M143" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>239</v>
+      </c>
+      <c r="M144" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>240</v>
+      </c>
+      <c r="M145" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>241</v>
+      </c>
+      <c r="M146" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>242</v>
+      </c>
+      <c r="M147" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>243</v>
+      </c>
+      <c r="M148" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>270</v>
+      </c>
+      <c r="M149" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
         <v>271</v>
       </c>
-      <c r="M142" t="s">
-        <v>273</v>
+      <c r="M150" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6182AE-3A1C-4F11-95BC-12F328577B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F11694-64D9-481C-B0FC-ACB5363AA677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="321">
   <si>
     <t>English</t>
   </si>
@@ -1517,6 +1517,124 @@
   </si>
   <si>
     <t>Lover</t>
+  </si>
+  <si>
+    <t>インポスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クルー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shapeshifter</t>
+  </si>
+  <si>
+    <t>Impostor</t>
+  </si>
+  <si>
+    <t>シェイプシフター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Crewmate</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>エンジニア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイエンティスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meetingStatus</t>
+  </si>
+  <si>
+    <t>CREWMEMBER {0} HAS\n\n\nEMERGENCY MEETINGS LEFT</t>
+  </si>
+  <si>
+    <t>meetingCount</t>
+  </si>
+  <si>
+    <t>{0} and the ship has {1}</t>
+  </si>
+  <si>
+    <t>buttonBlocked</t>
+  </si>
+  <si>
+    <t>BLOCKED</t>
+  </si>
+  <si>
+    <t>使用禁止</t>
+  </si>
+  <si>
+    <t>unitSeconds</t>
+  </si>
+  <si>
+    <t>{0}s</t>
+  </si>
+  <si>
+    <t>{0}秒</t>
+  </si>
+  <si>
+    <t>unitMinutes</t>
+  </si>
+  <si>
+    <t>{0}m</t>
+  </si>
+  <si>
+    <t>{0}分</t>
+  </si>
+  <si>
+    <t>unitShots</t>
+  </si>
+  <si>
+    <t>{0}</t>
+  </si>
+  <si>
+    <t>unitScrews</t>
+  </si>
+  <si>
+    <t>unitMultiplier</t>
+  </si>
+  <si>
+    <t>{0}x</t>
+  </si>
+  <si>
+    <t>{0}x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船員 {0} が、あと\n\n\n回緊急招集できる</t>
+    <rPh sb="17" eb="18">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}回　と船員全体で　{1}回</t>
+    <rPh sb="6" eb="8">
+      <t>センイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}回</t>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1841,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q150"/>
+  <dimension ref="A1:Q170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="M133" sqref="M133"/>
+    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2258,825 +2376,953 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>276</v>
+        <v>298</v>
+      </c>
+      <c r="B43" t="s">
+        <v>299</v>
       </c>
       <c r="M43" t="s">
-        <v>116</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>300</v>
+      </c>
+      <c r="B44" t="s">
+        <v>301</v>
       </c>
       <c r="M44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>111</v>
-      </c>
-      <c r="M45" t="s">
-        <v>117</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>302</v>
+      </c>
+      <c r="B46" t="s">
+        <v>303</v>
       </c>
       <c r="M46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>113</v>
-      </c>
-      <c r="M47" t="s">
-        <v>119</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>305</v>
+      </c>
+      <c r="B48" t="s">
+        <v>306</v>
       </c>
       <c r="M48" t="s">
-        <v>120</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>245</v>
+        <v>308</v>
+      </c>
+      <c r="B49" t="s">
+        <v>309</v>
       </c>
       <c r="M49" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>246</v>
+        <v>311</v>
+      </c>
+      <c r="B50" t="s">
+        <v>312</v>
       </c>
       <c r="M50" t="s">
-        <v>247</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>313</v>
+      </c>
+      <c r="B51" t="s">
+        <v>312</v>
+      </c>
+      <c r="M51" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>314</v>
+      </c>
+      <c r="B52" t="s">
+        <v>315</v>
       </c>
       <c r="M52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>121</v>
-      </c>
-      <c r="M53" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>122</v>
-      </c>
-      <c r="M54" t="s">
-        <v>117</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="M55" t="s">
-        <v>118</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="M56" t="s">
-        <v>119</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>293</v>
       </c>
       <c r="M57" t="s">
-        <v>120</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="M58" t="s">
-        <v>132</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="M59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>128</v>
-      </c>
-      <c r="M60" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>129</v>
-      </c>
-      <c r="M61" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>249</v>
-      </c>
-      <c r="M62" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="M63" t="s">
-        <v>252</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>115</v>
+      </c>
+      <c r="M64" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="M65" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="M66" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="M67" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="M68" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="M69" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="M70" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>140</v>
-      </c>
-      <c r="M71" t="s">
-        <v>132</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="M72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="M73" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="M74" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="M75" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="M76" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>254</v>
+        <v>125</v>
       </c>
       <c r="M77" t="s">
-        <v>256</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>126</v>
+      </c>
+      <c r="M78" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>279</v>
+        <v>127</v>
       </c>
       <c r="M79" t="s">
-        <v>281</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>280</v>
+        <v>128</v>
       </c>
       <c r="M80" t="s">
-        <v>282</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="M81" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="M82" t="s">
-        <v>117</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="M83" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>150</v>
-      </c>
-      <c r="M84" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>278</v>
       </c>
       <c r="M85" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="M86" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="M87" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="M88" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="M89" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="M90" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M91" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="M92" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="M93" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="M94" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="M95" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="M96" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="M97" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>172</v>
-      </c>
-      <c r="M98" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
       <c r="M99" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="M100" t="s">
-        <v>180</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="M101" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="M102" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>257</v>
+        <v>149</v>
       </c>
       <c r="M103" t="s">
-        <v>262</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>258</v>
+        <v>150</v>
       </c>
       <c r="M104" t="s">
-        <v>261</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>259</v>
+        <v>151</v>
       </c>
       <c r="M105" t="s">
-        <v>260</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>152</v>
+      </c>
+      <c r="M106" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="M107" t="s">
-        <v>286</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>284</v>
+        <v>154</v>
       </c>
       <c r="M108" t="s">
-        <v>285</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="M109" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="M110" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="M111" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="M112" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="M113" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="M114" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="M115" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="M116" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="M117" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="M118" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="M119" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="M120" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="M121" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="M122" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="M123" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="M124" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="M125" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>218</v>
-      </c>
-      <c r="M126" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="M127" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="M128" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="M129" t="s">
-        <v>269</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="M130" t="s">
-        <v>268</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>190</v>
+      </c>
+      <c r="M131" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="M132" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="M133" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="M134" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="M135" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="M136" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="M137" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="M138" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="M139" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="M140" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="M141" t="s">
-        <v>120</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="M142" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="M143" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="M144" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="M145" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="M146" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="M147" t="s">
-        <v>133</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="M148" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M149" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
+        <v>267</v>
+      </c>
+      <c r="M150" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>287</v>
+      </c>
+      <c r="M152" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>222</v>
+      </c>
+      <c r="M153" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>223</v>
+      </c>
+      <c r="M154" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>224</v>
+      </c>
+      <c r="M155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>227</v>
+      </c>
+      <c r="M156" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>228</v>
+      </c>
+      <c r="M157" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>229</v>
+      </c>
+      <c r="M158" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>232</v>
+      </c>
+      <c r="M159" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>233</v>
+      </c>
+      <c r="M160" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>234</v>
+      </c>
+      <c r="M161" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>235</v>
+      </c>
+      <c r="M162" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>237</v>
+      </c>
+      <c r="M163" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>239</v>
+      </c>
+      <c r="M164" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>240</v>
+      </c>
+      <c r="M165" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>241</v>
+      </c>
+      <c r="M166" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>242</v>
+      </c>
+      <c r="M167" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>243</v>
+      </c>
+      <c r="M168" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>270</v>
+      </c>
+      <c r="M169" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
         <v>271</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M170" t="s">
         <v>272</v>
       </c>
     </row>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F11694-64D9-481C-B0FC-ACB5363AA677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F374F6-89A3-4765-B263-42A7FA672EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1612,13 +1612,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>船員 {0} が、あと\n\n\n回緊急招集できる</t>
-    <rPh sb="17" eb="18">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>{0}回　と船員全体で　{1}回</t>
     <rPh sb="6" eb="8">
       <t>センイン</t>
@@ -1634,6 +1627,10 @@
     <rPh sb="3" eb="4">
       <t>カイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船員 {0} が、あと\n\n\n緊急招集できる</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1961,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2382,7 +2379,7 @@
         <v>299</v>
       </c>
       <c r="M43" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
@@ -2393,7 +2390,7 @@
         <v>301</v>
       </c>
       <c r="M44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
@@ -2437,7 +2434,7 @@
         <v>312</v>
       </c>
       <c r="M50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
@@ -2448,7 +2445,7 @@
         <v>312</v>
       </c>
       <c r="M51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F374F6-89A3-4765-B263-42A7FA672EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF666FB4-9897-48DB-83B5-73BBADA20CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="362">
   <si>
     <t>English</t>
   </si>
@@ -188,9 +188,6 @@
     <t>No Vote Is Self Vote</t>
   </si>
   <si>
-    <t>自投票禁止</t>
-  </si>
-  <si>
     <t>Hide Player Names</t>
   </si>
   <si>
@@ -207,12 +204,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NumMeatings</t>
-  </si>
-  <si>
-    <t>BlockMeating</t>
-  </si>
-  <si>
     <t>NoVoteToSelf</t>
   </si>
   <si>
@@ -234,34 +225,22 @@
     <t>Ghosts See Remaining Tasks</t>
   </si>
   <si>
-    <t>幽霊時、全員のタスク残量が見える</t>
-  </si>
-  <si>
     <t>ghostsSeeRolesButton</t>
   </si>
   <si>
     <t>Ghosts See Roles</t>
   </si>
   <si>
-    <t>幽霊時、全員のロールが見える</t>
-  </si>
-  <si>
     <t>ghostsSeeVotesButton</t>
   </si>
   <si>
     <t>Ghosts See Votes</t>
   </si>
   <si>
-    <t>幽霊時、全員の投票先が見える</t>
-  </si>
-  <si>
     <t>showRoleSummaryButton</t>
   </si>
   <si>
     <t>Role Summary</t>
-  </si>
-  <si>
-    <t>最終結果を表示</t>
   </si>
   <si>
     <t>optionOn</t>
@@ -739,10 +718,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ackalSidekickUseSabotage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイドキックがサボタージを使えるか</t>
     <rPh sb="13" eb="14">
       <t>ツカ</t>
@@ -1631,6 +1606,311 @@
   </si>
   <si>
     <t>船員 {0} が、あと\n\n\n緊急招集できる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NumMeating</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DisableSkipInEmergencyMeeting</t>
+  </si>
+  <si>
+    <t>投票がない場合、自殺票となるか</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジサツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DesableVent</t>
+  </si>
+  <si>
+    <t>マップのベントを無効化する</t>
+    <rPh sb="8" eb="11">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DisableNeutralSpecialForceEnd</t>
+  </si>
+  <si>
+    <t>IsSameNeutralSameWin</t>
+  </si>
+  <si>
+    <t>EngineerUseImpostorVent</t>
+  </si>
+  <si>
+    <t>エンジニアのベント使用をインポスターと同じにする</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じロールの第三陣営の勝利を同じにする</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営の特殊勝利による強制終了を無効化する</t>
+    <rPh sb="0" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>キョウセイシュウリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moreOptionText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>modOptionText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MODの設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>streamerModeButton</t>
+  </si>
+  <si>
+    <t>配信者向け設定</t>
+    <rPh sb="0" eb="3">
+      <t>ハイシンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UseStrongRandomGen</t>
+  </si>
+  <si>
+    <t>強力なシャッフルを使用する</t>
+    <rPh sb="0" eb="2">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalForceReplaceLover</t>
+  </si>
+  <si>
+    <t>ラバーズ+サイドキックを無効化する</t>
+    <rPh sb="12" eb="15">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalSidekickUseSabotage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalSideKickCanKill</t>
+  </si>
+  <si>
+    <t>サイドキックがキルを行えるか</t>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csvImport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csvExport</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>importPleaseWait</t>
+  </si>
+  <si>
+    <t>インポート中、しばらくお待ち下さい・・・</t>
+    <rPh sb="5" eb="6">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>importSuccess</t>
+  </si>
+  <si>
+    <t>インポートに成功しました</t>
+    <rPh sb="6" eb="8">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exportPleaseWait</t>
+  </si>
+  <si>
+    <t>importError</t>
+  </si>
+  <si>
+    <t>エクスポート中、しばらくお待ち下さい・・・</t>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exportSuccess</t>
+  </si>
+  <si>
+    <t>option.csvへのエクスポートに成功しました</t>
+    <rPh sb="19" eb="21">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exportError</t>
+  </si>
+  <si>
+    <t>エクスポートに失敗しました\n option.csvを削除して再実行してください</t>
+    <rPh sb="7" eb="13">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>サイジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポートに失敗しました\n ファイル等を確認してください</t>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション設定をエクスポート</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプション設定をインポート</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各プレイヤーの最終結果を表示する</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>サイシュウケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幽霊時、全員の投票先表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幽霊時、全員のロール表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幽霊時、全員のタスク残量表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>勝利</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AndFirst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>及び</t>
+    <rPh sb="0" eb="1">
+      <t>オヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>、</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1674,8 +1954,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1956,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q170"/>
+  <dimension ref="A1:Q192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2021,7 +2304,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -2097,1131 +2380,1131 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
+      <c r="A10" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="M15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="M17" t="s">
-        <v>101</v>
+      <c r="M16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M20" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="M22" t="s">
-        <v>273</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>66</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
+      <c r="A25" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="M25" t="s">
-        <v>69</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
+      <c r="A26" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
+      <c r="A27" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="M27" t="s">
-        <v>75</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="M29" t="s">
-        <v>78</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>327</v>
+      </c>
+      <c r="M31" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="M32" t="s">
-        <v>108</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>109</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>110</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s">
-        <v>93</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s">
-        <v>92</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" t="s">
-        <v>90</v>
-      </c>
-      <c r="M41" t="s">
-        <v>91</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>343</v>
+      </c>
+      <c r="M40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>337</v>
+      </c>
+      <c r="M42" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>300</v>
-      </c>
-      <c r="B44" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>302</v>
-      </c>
-      <c r="B46" t="s">
-        <v>303</v>
-      </c>
-      <c r="M46" t="s">
-        <v>304</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>347</v>
+      </c>
+      <c r="M45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>305</v>
-      </c>
-      <c r="B48" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="M48" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>308</v>
-      </c>
-      <c r="B49" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
       <c r="M49" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>311</v>
-      </c>
-      <c r="B50" t="s">
-        <v>312</v>
-      </c>
-      <c r="M50" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>313</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>312</v>
+        <v>70</v>
       </c>
       <c r="M51" t="s">
-        <v>318</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>314</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="M52" t="s">
-        <v>316</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="M54" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>291</v>
+        <v>95</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
       </c>
       <c r="M55" t="s">
-        <v>288</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>290</v>
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
       </c>
       <c r="M56" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>293</v>
-      </c>
-      <c r="M57" t="s">
-        <v>289</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>294</v>
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
       </c>
       <c r="M58" t="s">
-        <v>296</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>295</v>
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
       </c>
       <c r="M59" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>276</v>
-      </c>
-      <c r="M63" t="s">
-        <v>116</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="M60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="M62" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>290</v>
+      </c>
+      <c r="B64" t="s">
+        <v>291</v>
       </c>
       <c r="M64" t="s">
-        <v>116</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>292</v>
+      </c>
+      <c r="B65" t="s">
+        <v>293</v>
       </c>
       <c r="M65" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>112</v>
-      </c>
-      <c r="M66" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>294</v>
+      </c>
+      <c r="B67" t="s">
+        <v>295</v>
       </c>
       <c r="M67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>114</v>
-      </c>
-      <c r="M68" t="s">
-        <v>120</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>245</v>
+        <v>297</v>
+      </c>
+      <c r="B69" t="s">
+        <v>298</v>
       </c>
       <c r="M69" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>246</v>
+        <v>300</v>
+      </c>
+      <c r="B70" t="s">
+        <v>301</v>
       </c>
       <c r="M70" t="s">
-        <v>247</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" t="s">
+        <v>304</v>
+      </c>
+      <c r="M71" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>277</v>
+        <v>305</v>
+      </c>
+      <c r="B72" t="s">
+        <v>304</v>
       </c>
       <c r="M72" t="s">
-        <v>130</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>306</v>
+      </c>
+      <c r="B73" t="s">
+        <v>307</v>
       </c>
       <c r="M73" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>122</v>
-      </c>
-      <c r="M74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>123</v>
-      </c>
-      <c r="M75" t="s">
-        <v>118</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="M76" t="s">
-        <v>119</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>282</v>
       </c>
       <c r="M77" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>285</v>
       </c>
       <c r="M78" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>286</v>
       </c>
       <c r="M79" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>287</v>
       </c>
       <c r="M80" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>129</v>
-      </c>
-      <c r="M81" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>249</v>
-      </c>
-      <c r="M82" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="M83" t="s">
-        <v>252</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>108</v>
+      </c>
+      <c r="M84" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>278</v>
+        <v>104</v>
       </c>
       <c r="M85" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="M86" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="M87" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="M88" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="M89" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="M90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>140</v>
-      </c>
-      <c r="M91" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="M92" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="M93" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="M94" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="M95" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>253</v>
+        <v>117</v>
       </c>
       <c r="M96" t="s">
-        <v>255</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="M97" t="s">
-        <v>256</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>119</v>
+      </c>
+      <c r="M98" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>279</v>
+        <v>120</v>
       </c>
       <c r="M99" t="s">
-        <v>281</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>280</v>
+        <v>121</v>
       </c>
       <c r="M100" t="s">
-        <v>282</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="M101" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="M102" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="M103" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>150</v>
-      </c>
-      <c r="M104" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="M105" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="M106" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="M107" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="M108" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="M109" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="M110" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="M111" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="M112" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="M113" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="M114" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="M115" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="M116" t="s">
-        <v>170</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="M117" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>172</v>
-      </c>
-      <c r="M118" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="M119" t="s">
-        <v>175</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="M120" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="M121" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="M122" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="M123" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>258</v>
+        <v>143</v>
       </c>
       <c r="M124" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>144</v>
       </c>
       <c r="M125" t="s">
-        <v>260</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>145</v>
+      </c>
+      <c r="M126" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="M127" t="s">
-        <v>286</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>284</v>
+        <v>147</v>
       </c>
       <c r="M128" t="s">
-        <v>285</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="M129" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="M130" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="M131" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>191</v>
+      <c r="A132" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="M132" t="s">
-        <v>194</v>
+        <v>332</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="M133" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="M134" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="M135" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="M136" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="M137" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="M138" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="M139" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="M140" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>210</v>
+      <c r="A141" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="M141" t="s">
-        <v>213</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="M142" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="M143" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="M144" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="M145" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="M146" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="M147" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
-        <v>264</v>
-      </c>
-      <c r="M148" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="M149" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M150" t="s">
-        <v>268</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>178</v>
+      </c>
+      <c r="M151" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>287</v>
+        <v>181</v>
       </c>
       <c r="M152" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="M153" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="M154" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="M155" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="M156" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="M157" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="M158" t="s">
         <v>192</v>
@@ -3229,98 +3512,266 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="M159" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="M160" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="M161" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="M162" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="M163" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="M164" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="M165" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="M166" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="M167" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="M168" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="M169" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="M170" t="s">
-        <v>272</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>258</v>
+      </c>
+      <c r="M171" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>259</v>
+      </c>
+      <c r="M172" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>279</v>
+      </c>
+      <c r="M174" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>214</v>
+      </c>
+      <c r="M175" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>215</v>
+      </c>
+      <c r="M176" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>216</v>
+      </c>
+      <c r="M177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>219</v>
+      </c>
+      <c r="M178" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>220</v>
+      </c>
+      <c r="M179" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>221</v>
+      </c>
+      <c r="M180" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>224</v>
+      </c>
+      <c r="M181" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>225</v>
+      </c>
+      <c r="M182" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>226</v>
+      </c>
+      <c r="M183" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>227</v>
+      </c>
+      <c r="M184" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>229</v>
+      </c>
+      <c r="M185" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>231</v>
+      </c>
+      <c r="M186" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>232</v>
+      </c>
+      <c r="M187" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>233</v>
+      </c>
+      <c r="M188" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>234</v>
+      </c>
+      <c r="M189" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>235</v>
+      </c>
+      <c r="M190" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>262</v>
+      </c>
+      <c r="M191" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>263</v>
+      </c>
+      <c r="M192" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
